--- a/tableau.xlsx
+++ b/tableau.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laksh\Documents\IPSSI\SLAM2\iPortfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A335F3F4-B87F-4AF1-93CF-6BCB4D0E0C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9ECF1D6-1B71-482E-A15D-110A9C7FEB87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
@@ -139,9 +139,6 @@
     <t>Proposition de solutions et mise en place d'outils de gestion de projet aux problematiques de l'entreprise M2L (Gantt, UML2, Trello)</t>
   </si>
   <si>
-    <t>Création de l'entreprise virtuelle "nom entreprise" en html/css</t>
-  </si>
-  <si>
     <t>GLPI: mise en place du logiciel GLPI et gestion ticketing</t>
   </si>
   <si>
@@ -160,9 +157,6 @@
 </t>
   </si>
   <si>
-    <t>Test unitaire (à modifier)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Réalisation d'une application avec Drupal, de gestion financières
 </t>
   </si>
@@ -214,6 +208,12 @@
   </si>
   <si>
     <t>N° candidat : 02244065622</t>
+  </si>
+  <si>
+    <t>Création de l'entreprise virtuelle "PC Repair" en html/css</t>
+  </si>
+  <si>
+    <t>Réalisation de tests unitaires avec Jest</t>
   </si>
 </sst>
 </file>
@@ -759,15 +759,42 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -800,33 +827,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1248,8 +1248,8 @@
   </sheetPr>
   <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28:H30"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1262,56 +1262,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="27"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
     </row>
     <row r="3" spans="1:43" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" s="40"/>
-      <c r="H3" s="46"/>
+      <c r="A3" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="28"/>
+      <c r="H3" s="34"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="44"/>
+      <c r="A4" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="32"/>
       <c r="F4" s="12" t="s">
         <v>2</v>
       </c>
@@ -1319,26 +1319,26 @@
         <v>3</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="38"/>
+      <c r="A5" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="47"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="43" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1361,8 +1361,8 @@
       </c>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="325.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="26"/>
-      <c r="B7" s="35"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="44"/>
       <c r="C7" s="20" t="s">
         <v>12</v>
       </c>
@@ -1418,16 +1418,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="30"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="39"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1516,7 +1516,7 @@
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="22" t="s">
         <v>24</v>
@@ -1618,7 +1618,7 @@
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B12" s="22" t="s">
         <v>24</v>
@@ -1672,7 +1672,7 @@
         <v>22</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="14"/>
@@ -1681,7 +1681,7 @@
       <c r="G13" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="47"/>
+      <c r="H13" s="25"/>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
@@ -1720,10 +1720,10 @@
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="14" t="s">
@@ -1732,7 +1732,7 @@
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
-      <c r="H14" s="47"/>
+      <c r="H14" s="25"/>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
@@ -1771,10 +1771,10 @@
     </row>
     <row r="15" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="14"/>
@@ -1787,7 +1787,7 @@
       <c r="G15" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H15" s="47"/>
+      <c r="H15" s="25"/>
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15"/>
@@ -1826,10 +1826,10 @@
     </row>
     <row r="16" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="14"/>
@@ -1842,7 +1842,7 @@
       <c r="G16" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H16" s="47"/>
+      <c r="H16" s="25"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -1881,17 +1881,17 @@
     </row>
     <row r="17" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
-      <c r="H17" s="47" t="s">
+      <c r="H17" s="25" t="s">
         <v>21</v>
       </c>
       <c r="I17"/>
@@ -1932,10 +1932,10 @@
     </row>
     <row r="18" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="14"/>
@@ -1944,7 +1944,7 @@
       <c r="G18" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H18" s="47"/>
+      <c r="H18" s="25"/>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
@@ -1982,16 +1982,16 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="33"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="42"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -2030,10 +2030,10 @@
     </row>
     <row r="20" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
@@ -2350,16 +2350,16 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="33"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="42"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2398,10 +2398,10 @@
     </row>
     <row r="28" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C28" s="15"/>
       <c r="D28" s="14"/>
@@ -2410,7 +2410,7 @@
       <c r="G28" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H28" s="47"/>
+      <c r="H28" s="25"/>
       <c r="I28"/>
       <c r="J28"/>
       <c r="K28"/>
@@ -2449,10 +2449,10 @@
     </row>
     <row r="29" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="14" t="s">
@@ -2461,7 +2461,7 @@
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
-      <c r="H29" s="47"/>
+      <c r="H29" s="25"/>
       <c r="I29"/>
       <c r="J29"/>
       <c r="K29"/>
@@ -2506,7 +2506,7 @@
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
       <c r="G30" s="14"/>
-      <c r="H30" s="47"/>
+      <c r="H30" s="25"/>
       <c r="I30"/>
       <c r="J30"/>
       <c r="K30"/>
@@ -2816,11 +2816,6 @@
     <row r="81" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -2828,11 +2823,16 @@
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="48" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="52" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
@@ -2868,18 +2868,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3015,18 +3015,25 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07AC6487-DDB9-4C2F-B4AD-A5CAA4E81AC6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D7FE3C5-1193-4974-A741-0617571FD9E5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="a54630e7-b857-4bdf-808b-f1da7c130004"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D7FE3C5-1193-4974-A741-0617571FD9E5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07AC6487-DDB9-4C2F-B4AD-A5CAA4E81AC6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/tableau.xlsx
+++ b/tableau.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laksh\Documents\IPSSI\SLAM2\iPortfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9ECF1D6-1B71-482E-A15D-110A9C7FEB87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C088FA0A-4D6A-4BDB-A739-9AAD174579A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
@@ -161,9 +161,6 @@
 </t>
   </si>
   <si>
-    <t>Migration des routes d'un webservice vers une API C#</t>
-  </si>
-  <si>
     <t>Résolution d'incidents et de problemes sur les applications internes</t>
   </si>
   <si>
@@ -214,6 +211,9 @@
   </si>
   <si>
     <t>Réalisation de tests unitaires avec Jest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajouter des fonctionnalités en C# qui permettent à l'utilisateur une meilleur utilisation de l'application </t>
   </si>
 </sst>
 </file>
@@ -762,9 +762,48 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -787,45 +826,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1248,8 +1248,8 @@
   </sheetPr>
   <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1262,56 +1262,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="26"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:43" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="34"/>
+      <c r="A3" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="41"/>
+      <c r="H3" s="47"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="32"/>
+      <c r="A4" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="45"/>
       <c r="F4" s="12" t="s">
         <v>2</v>
       </c>
@@ -1319,26 +1319,26 @@
         <v>3</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="47"/>
+      <c r="A5" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="39"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="35" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1361,8 +1361,8 @@
       </c>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="325.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="36"/>
-      <c r="B7" s="44"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="20" t="s">
         <v>12</v>
       </c>
@@ -1418,16 +1418,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="39"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="31"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1618,7 +1618,7 @@
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B12" s="22" t="s">
         <v>24</v>
@@ -1672,7 +1672,7 @@
         <v>22</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="14"/>
@@ -1723,7 +1723,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="14" t="s">
@@ -1774,7 +1774,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="14"/>
@@ -1829,7 +1829,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="14"/>
@@ -1884,7 +1884,7 @@
         <v>31</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="14"/>
@@ -1932,10 +1932,10 @@
     </row>
     <row r="18" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="14"/>
@@ -1982,16 +1982,16 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A19" s="40" t="s">
+      <c r="A19" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="42"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="34"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -2033,7 +2033,7 @@
         <v>32</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
@@ -2350,16 +2350,16 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A27" s="40" t="s">
+      <c r="A27" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="42"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="34"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2398,10 +2398,10 @@
     </row>
     <row r="28" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C28" s="15"/>
       <c r="D28" s="14"/>
@@ -2449,10 +2449,10 @@
     </row>
     <row r="29" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="14" t="s">
@@ -2816,6 +2816,11 @@
     <row r="81" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -2823,11 +2828,6 @@
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -2868,18 +2868,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3015,6 +3015,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07AC6487-DDB9-4C2F-B4AD-A5CAA4E81AC6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D7FE3C5-1193-4974-A741-0617571FD9E5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -3026,14 +3034,6 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07AC6487-DDB9-4C2F-B4AD-A5CAA4E81AC6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
